--- a/283-préparation-de-la-release-110/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/283-préparation-de-la-release-110/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-ballot</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T08:26:29+00:00</t>
+    <t>2025-02-18T09:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/283-préparation-de-la-release-110/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/283-préparation-de-la-release-110/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T09:27:09+00:00</t>
+    <t>2025-02-18T15:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
